--- a/资料/设计方案/Hilink智能家居 Profile V2.1 遥控大师_小苹果1_v1.1.xlsx
+++ b/资料/设计方案/Hilink智能家居 Profile V2.1 遥控大师_小苹果1_v1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="95" windowWidth="19195" windowHeight="11642"/>
   </bookViews>
   <sheets>
     <sheet name="设备属性表" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="277">
   <si>
     <t>设备类型
 deviceType</t>
@@ -1230,20 +1230,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0-关机
 1-开机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源按键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1417,6 +1409,20 @@
   </si>
   <si>
     <t>遥控器设备devId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源按键（不要用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.为自动，抽湿时，温度设16度
+2.抽湿，风速1档
+3.送风，无自动档风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1888,7 +1894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2207,6 +2213,9 @@
     <xf numFmtId="176" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2216,8 +2225,11 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2527,11 +2539,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -2542,23 +2554,23 @@
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.125" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
     <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.625" customWidth="1"/>
     <col min="15" max="15" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="13.6" thickBot="1">
+      <c r="A1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="N1" s="3"/>
@@ -2567,7 +2579,7 @@
       <c r="E2" s="59"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="82.5">
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="81.55">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="65" customFormat="1" ht="16.5">
+    <row r="4" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A4" s="63"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63" t="s">
@@ -2637,7 +2649,7 @@
       <c r="N4" s="63"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" s="65" customFormat="1" ht="33">
+    <row r="5" spans="1:15" s="65" customFormat="1" ht="29.9">
       <c r="A5" s="63"/>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
@@ -2666,11 +2678,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="65" customFormat="1" ht="16.5">
+    <row r="6" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
       <c r="C6" s="63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>193</v>
@@ -2691,7 +2703,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="65" customFormat="1" ht="16.5">
+    <row r="7" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A7" s="63"/>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -2724,20 +2736,20 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="65" customFormat="1" ht="82.5">
+    <row r="8" spans="1:15" s="65" customFormat="1" ht="74.75">
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
       <c r="E8" s="20"/>
       <c r="F8" s="89" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G8" s="89" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="17"/>
@@ -2746,10 +2758,10 @@
       <c r="M8" s="64"/>
       <c r="N8" s="63"/>
       <c r="O8" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -2772,7 +2784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="83" customFormat="1" ht="16.5">
+    <row r="10" spans="1:15" s="83" customFormat="1" ht="14.95">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
@@ -2792,10 +2804,10 @@
       <c r="M10" s="77"/>
       <c r="N10" s="71"/>
       <c r="O10" s="78" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A11" s="63"/>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -2819,10 +2831,10 @@
       <c r="M11" s="64"/>
       <c r="N11" s="63"/>
       <c r="O11" s="66" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="83" customFormat="1" ht="16.5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="83" customFormat="1" ht="14.95">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
@@ -2842,10 +2854,10 @@
       <c r="M12" s="77"/>
       <c r="N12" s="71"/>
       <c r="O12" s="78" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="83" customFormat="1" ht="16.5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="83" customFormat="1" ht="14.95">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -2865,10 +2877,10 @@
       <c r="M13" s="77"/>
       <c r="N13" s="71"/>
       <c r="O13" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="83" customFormat="1" ht="16.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="83" customFormat="1" ht="14.95">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
@@ -2890,10 +2902,10 @@
       <c r="M14" s="77"/>
       <c r="N14" s="71"/>
       <c r="O14" s="78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="83" customFormat="1" ht="16.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="83" customFormat="1" ht="14.95">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
@@ -2913,10 +2925,10 @@
       <c r="M15" s="77"/>
       <c r="N15" s="71"/>
       <c r="O15" s="78" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="83" customFormat="1" ht="16.5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="83" customFormat="1" ht="14.95">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
@@ -2927,7 +2939,7 @@
       </c>
       <c r="G16" s="79"/>
       <c r="H16" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="76"/>
@@ -2936,10 +2948,10 @@
       <c r="M16" s="77"/>
       <c r="N16" s="71"/>
       <c r="O16" s="78" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A17" s="63"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
@@ -2952,7 +2964,7 @@
         <v>81</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
@@ -2961,7 +2973,7 @@
       <c r="M17" s="64"/>
       <c r="N17" s="63"/>
       <c r="O17" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="83" customFormat="1" ht="20.25" customHeight="1">
@@ -2984,7 +2996,7 @@
       <c r="M18" s="77"/>
       <c r="N18" s="71"/>
       <c r="O18" s="81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="65" customFormat="1" ht="20.25" customHeight="1">
@@ -3011,10 +3023,10 @@
       <c r="M19" s="64"/>
       <c r="N19" s="63"/>
       <c r="O19" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="83" customFormat="1" ht="16.5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="83" customFormat="1" ht="14.95">
       <c r="A20" s="71"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
@@ -3034,7 +3046,7 @@
       <c r="M20" s="77"/>
       <c r="N20" s="71"/>
       <c r="O20" s="81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="83" customFormat="1" ht="20.25" customHeight="1">
@@ -3059,10 +3071,10 @@
       <c r="M21" s="77"/>
       <c r="N21" s="71"/>
       <c r="O21" s="81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A22" s="63"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
@@ -3075,7 +3087,7 @@
         <v>81</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
@@ -3087,18 +3099,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="65" customFormat="1" ht="16.5">
+    <row r="23" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A23" s="63"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="109" t="s">
-        <v>274</v>
+      <c r="F23" s="106" t="s">
+        <v>272</v>
       </c>
       <c r="G23" s="95"/>
       <c r="H23" s="90" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I23" s="91"/>
       <c r="J23" s="92"/>
@@ -3107,10 +3119,10 @@
       <c r="M23" s="93"/>
       <c r="N23" s="89"/>
       <c r="O23" s="94" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A24" s="63"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63" t="s">
@@ -3135,20 +3147,20 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="65" customFormat="1" ht="181.5">
+    <row r="25" spans="1:15" s="65" customFormat="1" ht="164.4">
       <c r="A25" s="63"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="20"/>
       <c r="F25" s="90" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G25" s="95" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="90" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I25" s="91"/>
       <c r="J25" s="92"/>
@@ -3157,10 +3169,10 @@
       <c r="M25" s="93"/>
       <c r="N25" s="89"/>
       <c r="O25" s="94" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A26" s="63"/>
       <c r="B26" s="63"/>
       <c r="C26" s="96"/>
@@ -3171,7 +3183,7 @@
       </c>
       <c r="G26" s="99"/>
       <c r="H26" s="100" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I26" s="101"/>
       <c r="J26" s="102"/>
@@ -3180,10 +3192,10 @@
       <c r="M26" s="103"/>
       <c r="N26" s="96"/>
       <c r="O26" s="104" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A27" s="63"/>
       <c r="B27" s="63"/>
       <c r="C27" s="96"/>
@@ -3205,10 +3217,10 @@
       <c r="M27" s="103"/>
       <c r="N27" s="96"/>
       <c r="O27" s="104" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A28" s="63"/>
       <c r="B28" s="63"/>
       <c r="C28" s="96"/>
@@ -3230,10 +3242,10 @@
       <c r="M28" s="103"/>
       <c r="N28" s="96"/>
       <c r="O28" s="104" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="65" customFormat="1" ht="16.5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="65" customFormat="1" ht="14.95">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63" t="s">
@@ -3258,36 +3270,36 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="65" customFormat="1" ht="33">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19" t="s">
+    <row r="30" spans="1:15" s="110" customFormat="1" ht="29.9">
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="65" customFormat="1" ht="82.5">
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="104" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="65" customFormat="1" ht="74.75">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
@@ -3308,7 +3320,9 @@
       <c r="J31" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="64"/>
+      <c r="K31" s="111" t="s">
+        <v>276</v>
+      </c>
       <c r="L31" s="64"/>
       <c r="M31" s="64"/>
       <c r="N31" s="63"/>
@@ -3316,7 +3330,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="65" customFormat="1" ht="66">
+    <row r="32" spans="1:15" s="65" customFormat="1" ht="59.8">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
@@ -3337,7 +3351,7 @@
       <c r="J32" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="64"/>
+      <c r="K32" s="111"/>
       <c r="L32" s="64"/>
       <c r="M32" s="64"/>
       <c r="N32" s="63"/>
@@ -3345,7 +3359,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="65" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="65" customFormat="1" ht="14.95">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
@@ -3365,7 +3379,7 @@
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="64" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="L33" s="64" t="s">
         <v>227</v>
@@ -3378,7 +3392,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="65" customFormat="1" ht="33">
+    <row r="34" spans="1:20" s="65" customFormat="1" ht="29.9">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
@@ -3407,7 +3421,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="65" customFormat="1" ht="33">
+    <row r="35" spans="1:20" s="65" customFormat="1" ht="29.9">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -3436,7 +3450,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="65" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="65" customFormat="1" ht="14.95">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63" t="s">
@@ -3461,7 +3475,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="65" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="65" customFormat="1" ht="14.95">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63"/>
@@ -3474,7 +3488,7 @@
         <v>81</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
@@ -3486,20 +3500,20 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="65" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="65" customFormat="1" ht="14.95">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
       <c r="D38" s="63"/>
       <c r="E38" s="20"/>
       <c r="F38" s="88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G38" s="89" t="s">
         <v>81</v>
       </c>
       <c r="H38" s="90" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I38" s="91"/>
       <c r="J38" s="92"/>
@@ -3508,23 +3522,23 @@
       <c r="M38" s="93"/>
       <c r="N38" s="89"/>
       <c r="O38" s="94" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="65" customFormat="1" ht="16.5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="65" customFormat="1" ht="14.95">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
       <c r="E39" s="20"/>
       <c r="F39" s="88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G39" s="89" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H39" s="90" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I39" s="91"/>
       <c r="J39" s="92"/>
@@ -3533,10 +3547,10 @@
       <c r="M39" s="93"/>
       <c r="N39" s="89"/>
       <c r="O39" s="94" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="67" customFormat="1" ht="16.5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="67" customFormat="1" ht="14.95">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13" t="s">
@@ -3559,7 +3573,7 @@
       <c r="N40" s="18"/>
       <c r="O40" s="16"/>
     </row>
-    <row r="41" spans="1:20" s="67" customFormat="1" ht="116.25" customHeight="1">
+    <row r="41" spans="1:20" s="67" customFormat="1" ht="116.35" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -3594,7 +3608,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="67" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="67" customFormat="1" ht="14.95">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -3623,7 +3637,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="67" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="67" customFormat="1" ht="14.95">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -3648,7 +3662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="67" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="67" customFormat="1" ht="14.95">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -3673,7 +3687,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="67" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="67" customFormat="1" ht="14.95">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -3698,7 +3712,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="67" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="67" customFormat="1" ht="14.95">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13" t="s">
@@ -3723,7 +3737,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="69" customFormat="1" ht="33">
+    <row r="47" spans="1:20" s="69" customFormat="1" ht="29.9">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -3759,7 +3773,7 @@
       <c r="S47" s="67"/>
       <c r="T47" s="67"/>
     </row>
-    <row r="48" spans="1:20" s="69" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="69" customFormat="1" ht="14.95">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -3789,7 +3803,7 @@
       <c r="S48" s="67"/>
       <c r="T48" s="67"/>
     </row>
-    <row r="49" spans="1:20" s="69" customFormat="1" ht="16.5">
+    <row r="49" spans="1:20" s="69" customFormat="1" ht="14.95">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -3819,7 +3833,7 @@
       <c r="S49" s="67"/>
       <c r="T49" s="67"/>
     </row>
-    <row r="50" spans="1:20" s="69" customFormat="1" ht="115.5">
+    <row r="50" spans="1:20" s="69" customFormat="1" ht="119.55">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -3853,7 +3867,7 @@
       <c r="S50" s="67"/>
       <c r="T50" s="67"/>
     </row>
-    <row r="51" spans="1:20" s="69" customFormat="1" ht="33">
+    <row r="51" spans="1:20" s="69" customFormat="1" ht="29.9">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -3916,7 +3930,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
@@ -3930,7 +3944,7 @@
     <col min="13" max="13" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="27">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="25.85">
       <c r="A2" s="41" t="s">
         <v>51</v>
       </c>
@@ -3995,7 +4009,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="47" customFormat="1" ht="27">
+    <row r="6" spans="1:14" s="47" customFormat="1" ht="25.85">
       <c r="A6" s="45" t="s">
         <v>63</v>
       </c>
@@ -4147,7 +4161,7 @@
       <c r="I16" s="53"/>
       <c r="J16" s="50"/>
     </row>
-    <row r="17" spans="1:1" ht="54">
+    <row r="17" spans="1:1" ht="51.65">
       <c r="A17" s="57" t="s">
         <v>72</v>
       </c>
@@ -4168,7 +4182,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="17.375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.125" style="25" customWidth="1"/>
@@ -4182,7 +4196,7 @@
     <col min="13" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" thickTop="1" thickBot="1">
+    <row r="1" spans="1:4" ht="19.05" thickTop="1" thickBot="1">
       <c r="A1" s="40"/>
       <c r="B1" s="39" t="s">
         <v>50</v>
@@ -4194,7 +4208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:4" ht="46.2" thickTop="1" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>47</v>
       </c>
@@ -4206,7 +4220,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:4" ht="34.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:4" ht="28.55" thickTop="1" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>44</v>
       </c>
@@ -4218,7 +4232,7 @@
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" ht="117" thickTop="1" thickBot="1">
+    <row r="4" spans="1:4" ht="106" thickTop="1" thickBot="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -4232,7 +4246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:4" ht="28.55" thickTop="1" thickBot="1">
       <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
@@ -4242,7 +4256,7 @@
       <c r="C5" s="28"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" ht="34.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:4" ht="42.15" thickTop="1" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>36</v>
       </c>
@@ -4254,7 +4268,7 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:4" ht="100.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:4" ht="82.9" thickTop="1" thickBot="1">
       <c r="A7" s="26" t="s">
         <v>34</v>
       </c>
@@ -4264,7 +4278,7 @@
       <c r="C7" s="28"/>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" ht="84" thickTop="1" thickBot="1">
+    <row r="8" spans="1:4" ht="76.099999999999994" thickTop="1" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -4274,7 +4288,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:4" ht="84" thickTop="1" thickBot="1">
+    <row r="9" spans="1:4" ht="76.099999999999994" thickTop="1" thickBot="1">
       <c r="A9" s="26" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4300,7 @@
       </c>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4" ht="249" thickTop="1" thickBot="1">
+    <row r="10" spans="1:4" ht="225.55" thickTop="1" thickBot="1">
       <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
@@ -4298,7 +4312,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="11" spans="1:4" ht="16.3" thickTop="1" thickBot="1">
       <c r="A11" s="31" t="s">
         <v>26</v>
       </c>
@@ -4308,7 +4322,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="12" spans="1:4" ht="16.3" thickTop="1" thickBot="1">
       <c r="A12" s="31" t="s">
         <v>24</v>
       </c>
@@ -4318,7 +4332,7 @@
       <c r="C12" s="28"/>
       <c r="D12" s="27"/>
     </row>
-    <row r="13" spans="1:4" ht="133.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:4" ht="165.75" thickTop="1" thickBot="1">
       <c r="A13" s="26" t="s">
         <v>22</v>
       </c>
@@ -4330,7 +4344,7 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:4" ht="18" thickTop="1" thickBot="1">
+    <row r="14" spans="1:4" ht="16.3" thickTop="1" thickBot="1">
       <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
@@ -4340,7 +4354,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25" thickTop="1"/>
+    <row r="15" spans="1:4" ht="13.6" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -4364,13 +4378,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="16.5">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="13.6">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -4381,7 +4395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="16.5">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="14.95">
       <c r="A2" s="10">
         <v>43278</v>
       </c>
@@ -4389,20 +4403,20 @@
         <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.95">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
+    <row r="4" spans="1:3" ht="14.95">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="14.95">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -4457,7 +4471,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
@@ -4465,18 +4479,18 @@
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+    <row r="1" spans="1:4" ht="18.7" customHeight="1">
       <c r="A1" s="70" t="s">
         <v>180</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/资料/设计方案/Hilink智能家居 Profile V2.1 遥控大师_小苹果1_v1.1.xlsx
+++ b/资料/设计方案/Hilink智能家居 Profile V2.1 遥控大师_小苹果1_v1.1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9846522-58EC-4421-8779-8A66BB660F09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="95" windowWidth="19195" windowHeight="11642"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备属性表" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="279">
   <si>
     <t>设备类型
 deviceType</t>
@@ -1425,11 +1426,19 @@
 3.送风，无自动档风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>delIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于删除设备中某个码库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -2216,6 +2225,12 @@
     <xf numFmtId="176" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2224,18 +2239,12 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 7" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 7" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2251,7 +2260,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2326,6 +2335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2361,6 +2387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2536,41 +2579,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="59.5" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
+    <col min="15" max="15" width="59.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="13.6" thickBot="1">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="14.5" thickBot="1">
+      <c r="A1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="N1" s="3"/>
@@ -2579,7 +2622,7 @@
       <c r="E2" s="59"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="81.55">
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="87">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2626,7 +2669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="4" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A4" s="63"/>
       <c r="B4" s="63"/>
       <c r="C4" s="63" t="s">
@@ -2649,7 +2692,7 @@
       <c r="N4" s="63"/>
       <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" s="65" customFormat="1" ht="29.9">
+    <row r="5" spans="1:15" s="65" customFormat="1" ht="29">
       <c r="A5" s="63"/>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
@@ -2678,7 +2721,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="6" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
       <c r="C6" s="63" t="s">
@@ -2703,7 +2746,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="7" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A7" s="63"/>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -2736,7 +2779,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="65" customFormat="1" ht="74.75">
+    <row r="8" spans="1:15" s="65" customFormat="1" ht="72.5">
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -2761,7 +2804,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="9" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -2784,7 +2827,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="83" customFormat="1" ht="14.95">
+    <row r="10" spans="1:15" s="83" customFormat="1" ht="14.5">
       <c r="A10" s="71"/>
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
@@ -2807,7 +2850,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="11" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A11" s="63"/>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -2834,7 +2877,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="83" customFormat="1" ht="14.95">
+    <row r="12" spans="1:15" s="83" customFormat="1" ht="14.5">
       <c r="A12" s="71"/>
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
@@ -2857,7 +2900,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="83" customFormat="1" ht="14.95">
+    <row r="13" spans="1:15" s="83" customFormat="1" ht="14.5">
       <c r="A13" s="71"/>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -2880,7 +2923,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="83" customFormat="1" ht="14.95">
+    <row r="14" spans="1:15" s="83" customFormat="1" ht="14.5">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
@@ -2905,7 +2948,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="83" customFormat="1" ht="14.95">
+    <row r="15" spans="1:15" s="83" customFormat="1" ht="14.5">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
@@ -2928,7 +2971,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="83" customFormat="1" ht="14.95">
+    <row r="16" spans="1:15" s="83" customFormat="1" ht="14.5">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
@@ -2951,7 +2994,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="17" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A17" s="63"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
@@ -3026,7 +3069,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="83" customFormat="1" ht="14.95">
+    <row r="20" spans="1:15" s="83" customFormat="1" ht="14.5">
       <c r="A20" s="71"/>
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
@@ -3074,7 +3117,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="22" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A22" s="63"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
@@ -3099,7 +3142,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="23" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A23" s="63"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -3122,7 +3165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="24" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A24" s="63"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63" t="s">
@@ -3147,7 +3190,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="65" customFormat="1" ht="164.4">
+    <row r="25" spans="1:15" s="65" customFormat="1" ht="159.5">
       <c r="A25" s="63"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
@@ -3172,7 +3215,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="26" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A26" s="63"/>
       <c r="B26" s="63"/>
       <c r="C26" s="96"/>
@@ -3195,7 +3238,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="27" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A27" s="63"/>
       <c r="B27" s="63"/>
       <c r="C27" s="96"/>
@@ -3220,7 +3263,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="28" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A28" s="63"/>
       <c r="B28" s="63"/>
       <c r="C28" s="96"/>
@@ -3245,7 +3288,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="65" customFormat="1" ht="14.95">
+    <row r="29" spans="1:15" s="65" customFormat="1" ht="14.5">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63" t="s">
@@ -3270,7 +3313,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="110" customFormat="1" ht="29.9">
+    <row r="30" spans="1:15" s="107" customFormat="1" ht="29">
       <c r="A30" s="96"/>
       <c r="B30" s="96"/>
       <c r="C30" s="96"/>
@@ -3299,7 +3342,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="65" customFormat="1" ht="74.75">
+    <row r="31" spans="1:15" s="65" customFormat="1" ht="72.5">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
@@ -3320,7 +3363,7 @@
       <c r="J31" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="K31" s="111" t="s">
+      <c r="K31" s="108" t="s">
         <v>276</v>
       </c>
       <c r="L31" s="64"/>
@@ -3330,7 +3373,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="65" customFormat="1" ht="59.8">
+    <row r="32" spans="1:15" s="65" customFormat="1" ht="58">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
@@ -3351,7 +3394,7 @@
       <c r="J32" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="K32" s="111"/>
+      <c r="K32" s="108"/>
       <c r="L32" s="64"/>
       <c r="M32" s="64"/>
       <c r="N32" s="63"/>
@@ -3359,7 +3402,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="65" customFormat="1" ht="14.95">
+    <row r="33" spans="1:20" s="65" customFormat="1" ht="14.5">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
@@ -3392,7 +3435,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="65" customFormat="1" ht="29.9">
+    <row r="34" spans="1:20" s="65" customFormat="1" ht="29">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
@@ -3421,7 +3464,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="65" customFormat="1" ht="29.9">
+    <row r="35" spans="1:20" s="65" customFormat="1" ht="29">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -3450,7 +3493,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="65" customFormat="1" ht="14.95">
+    <row r="36" spans="1:20" s="65" customFormat="1" ht="14.5">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63" t="s">
@@ -3475,7 +3518,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="65" customFormat="1" ht="14.95">
+    <row r="37" spans="1:20" s="65" customFormat="1" ht="14.5">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63"/>
@@ -3500,7 +3543,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="65" customFormat="1" ht="14.95">
+    <row r="38" spans="1:20" s="65" customFormat="1" ht="14.5">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
@@ -3525,7 +3568,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="65" customFormat="1" ht="14.95">
+    <row r="39" spans="1:20" s="65" customFormat="1" ht="14.5">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -3550,126 +3593,126 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="67" customFormat="1" ht="14.95">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="16"/>
-    </row>
-    <row r="41" spans="1:20" s="67" customFormat="1" ht="116.35" customHeight="1">
+    <row r="40" spans="1:20" s="65" customFormat="1" ht="14.5">
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="91"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="67" customFormat="1" ht="14.5">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="C41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="O41" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="67" customFormat="1" ht="14.95">
+      <c r="N41" s="18"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="1:20" s="67" customFormat="1" ht="116.4" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="66"/>
       <c r="F42" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
+        <v>82</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="M42" s="13"/>
       <c r="N42" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="O42" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="67" customFormat="1" ht="14.95">
+      <c r="O42" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="67" customFormat="1" ht="14.5">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="66"/>
       <c r="F43" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I43" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="J43" s="17"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="18"/>
+      <c r="N43" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="O43" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" s="67" customFormat="1" ht="14.95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="67" customFormat="1" ht="14.5">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="66"/>
       <c r="F44" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>16</v>
@@ -3684,23 +3727,23 @@
       <c r="M44" s="13"/>
       <c r="N44" s="18"/>
       <c r="O44" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="67" customFormat="1" ht="14.95">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="67" customFormat="1" ht="14.5">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="66"/>
       <c r="F45" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="17"/>
@@ -3709,93 +3752,88 @@
       <c r="M45" s="13"/>
       <c r="N45" s="18"/>
       <c r="O45" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="67" customFormat="1" ht="14.95">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="67" customFormat="1" ht="14.5">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="13"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="13" t="s">
+      <c r="N46" s="18"/>
+      <c r="O46" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="67" customFormat="1" ht="14.5">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="69" customFormat="1" ht="29.9">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-    </row>
-    <row r="48" spans="1:20" s="69" customFormat="1" ht="14.95">
+    <row r="48" spans="1:20" s="69" customFormat="1" ht="29">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="68"/>
-      <c r="F48" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="15" t="s">
-        <v>114</v>
+      <c r="F48" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="P48" s="67"/>
       <c r="Q48" s="67"/>
@@ -3803,14 +3841,14 @@
       <c r="S48" s="67"/>
       <c r="T48" s="67"/>
     </row>
-    <row r="49" spans="1:20" s="69" customFormat="1" ht="14.95">
+    <row r="49" spans="1:20" s="69" customFormat="1" ht="14.5">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="68"/>
       <c r="F49" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>112</v>
@@ -3825,7 +3863,7 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P49" s="67"/>
       <c r="Q49" s="67"/>
@@ -3833,33 +3871,29 @@
       <c r="S49" s="67"/>
       <c r="T49" s="67"/>
     </row>
-    <row r="50" spans="1:20" s="69" customFormat="1" ht="119.55">
+    <row r="50" spans="1:20" s="69" customFormat="1" ht="14.5">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="68"/>
       <c r="F50" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="21">
-        <v>0</v>
-      </c>
-      <c r="L50" s="21">
-        <v>101</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="23"/>
+      <c r="N50" s="22"/>
       <c r="O50" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P50" s="67"/>
       <c r="Q50" s="67"/>
@@ -3867,14 +3901,14 @@
       <c r="S50" s="67"/>
       <c r="T50" s="67"/>
     </row>
-    <row r="51" spans="1:20" s="69" customFormat="1" ht="29.9">
+    <row r="51" spans="1:20" s="69" customFormat="1" ht="101.5">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="68"/>
       <c r="F51" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G51" s="19" t="s">
         <v>112</v>
@@ -3884,18 +3918,52 @@
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
+      <c r="K51" s="21">
+        <v>0</v>
+      </c>
+      <c r="L51" s="21">
+        <v>101</v>
+      </c>
       <c r="M51" s="22"/>
       <c r="N51" s="23"/>
       <c r="O51" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P51" s="67"/>
       <c r="Q51" s="67"/>
       <c r="R51" s="67"/>
       <c r="S51" s="67"/>
       <c r="T51" s="67"/>
+    </row>
+    <row r="52" spans="1:20" s="69" customFormat="1" ht="29">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3903,16 +3971,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48:G51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49:G52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"GET,PUT,GET，PUT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I47 I5:I16 I19 I21:I35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I48 I5:I16 I19 I21:I35" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"枚举-固定枚举范围,枚举-自定义枚举范围,整数-固定取值范围,整数-自定义取值范围"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G48" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"GET/PUT,GET,PUT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G8 G10:G46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G8 G10:G47" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"REPORT/GET/PUT,REPORT/GET,PUT,GET/PUT,REPORT,GET,REPORT/PUT,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3922,7 +3990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3930,21 +3998,21 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.25" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="4" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.26953125" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="13" max="13" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="25.85">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="24">
       <c r="A2" s="41" t="s">
         <v>51</v>
       </c>
@@ -3977,7 +4045,7 @@
     <row r="4" spans="1:14" s="2" customFormat="1">
       <c r="N4" s="44"/>
     </row>
-    <row r="5" spans="1:14" s="47" customFormat="1">
+    <row r="5" spans="1:14" s="47" customFormat="1" ht="12">
       <c r="A5" s="45" t="s">
         <v>54</v>
       </c>
@@ -4009,7 +4077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="47" customFormat="1" ht="25.85">
+    <row r="6" spans="1:14" s="47" customFormat="1" ht="24">
       <c r="A6" s="45" t="s">
         <v>63</v>
       </c>
@@ -4041,7 +4109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="51" customFormat="1">
+    <row r="7" spans="1:14" s="51" customFormat="1" ht="12">
       <c r="A7" s="48"/>
       <c r="B7" s="48"/>
       <c r="C7" s="49"/>
@@ -4053,7 +4121,7 @@
       <c r="I7" s="58"/>
       <c r="J7" s="50"/>
     </row>
-    <row r="8" spans="1:14" s="51" customFormat="1">
+    <row r="8" spans="1:14" s="51" customFormat="1" ht="11.5">
       <c r="A8" s="52"/>
       <c r="B8" s="53"/>
       <c r="C8" s="54"/>
@@ -4065,7 +4133,7 @@
       <c r="I8" s="53"/>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:14" s="56" customFormat="1">
+    <row r="9" spans="1:14" s="56" customFormat="1" ht="11.5">
       <c r="A9" s="52"/>
       <c r="B9" s="53"/>
       <c r="C9" s="54"/>
@@ -4077,7 +4145,7 @@
       <c r="I9" s="53"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="1:14" s="51" customFormat="1">
+    <row r="10" spans="1:14" s="51" customFormat="1" ht="12">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -4089,7 +4157,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:14" s="51" customFormat="1">
+    <row r="11" spans="1:14" s="51" customFormat="1" ht="11.5">
       <c r="A11" s="52"/>
       <c r="B11" s="53"/>
       <c r="C11" s="54"/>
@@ -4101,7 +4169,7 @@
       <c r="I11" s="53"/>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" spans="1:14" s="56" customFormat="1">
+    <row r="12" spans="1:14" s="56" customFormat="1" ht="11.5">
       <c r="A12" s="52"/>
       <c r="B12" s="53"/>
       <c r="C12" s="54"/>
@@ -4113,7 +4181,7 @@
       <c r="I12" s="53"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:14" s="56" customFormat="1">
+    <row r="13" spans="1:14" s="56" customFormat="1" ht="11.5">
       <c r="A13" s="52"/>
       <c r="B13" s="53"/>
       <c r="C13" s="54"/>
@@ -4125,7 +4193,7 @@
       <c r="I13" s="53"/>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" spans="1:14" s="51" customFormat="1">
+    <row r="14" spans="1:14" s="51" customFormat="1" ht="12">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
@@ -4137,7 +4205,7 @@
       <c r="I14" s="58"/>
       <c r="J14" s="50"/>
     </row>
-    <row r="15" spans="1:14" s="51" customFormat="1">
+    <row r="15" spans="1:14" s="51" customFormat="1" ht="11.5">
       <c r="A15" s="52"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54"/>
@@ -4149,7 +4217,7 @@
       <c r="I15" s="53"/>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" spans="1:14" s="56" customFormat="1">
+    <row r="16" spans="1:14" s="56" customFormat="1" ht="11.5">
       <c r="A16" s="52"/>
       <c r="B16" s="53"/>
       <c r="C16" s="54"/>
@@ -4161,7 +4229,7 @@
       <c r="I16" s="53"/>
       <c r="J16" s="50"/>
     </row>
-    <row r="17" spans="1:1" ht="51.65">
+    <row r="17" spans="1:1" ht="56">
       <c r="A17" s="57" t="s">
         <v>72</v>
       </c>
@@ -4175,28 +4243,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="24" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.08984375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.36328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="24" customWidth="1"/>
     <col min="9" max="11" width="9" style="24"/>
-    <col min="12" max="12" width="12.125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" style="24" customWidth="1"/>
     <col min="13" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.05" thickTop="1" thickBot="1">
+    <row r="1" spans="1:4" ht="17.5" thickTop="1" thickBot="1">
       <c r="A1" s="40"/>
       <c r="B1" s="39" t="s">
         <v>50</v>
@@ -4208,7 +4276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.2" thickTop="1" thickBot="1">
+    <row r="2" spans="1:4" ht="44.5" thickTop="1" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>47</v>
       </c>
@@ -4220,7 +4288,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:4" ht="28.55" thickTop="1" thickBot="1">
+    <row r="3" spans="1:4" ht="30" thickTop="1" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>44</v>
       </c>
@@ -4232,7 +4300,7 @@
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" ht="106" thickTop="1" thickBot="1">
+    <row r="4" spans="1:4" ht="102.5" thickTop="1" thickBot="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -4246,7 +4314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.55" thickTop="1" thickBot="1">
+    <row r="5" spans="1:4" ht="30" thickTop="1" thickBot="1">
       <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
@@ -4256,7 +4324,7 @@
       <c r="C5" s="28"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" ht="42.15" thickTop="1" thickBot="1">
+    <row r="6" spans="1:4" ht="44.5" thickTop="1" thickBot="1">
       <c r="A6" s="26" t="s">
         <v>36</v>
       </c>
@@ -4268,7 +4336,7 @@
       </c>
       <c r="D6" s="27"/>
     </row>
-    <row r="7" spans="1:4" ht="82.9" thickTop="1" thickBot="1">
+    <row r="7" spans="1:4" ht="88" thickTop="1" thickBot="1">
       <c r="A7" s="26" t="s">
         <v>34</v>
       </c>
@@ -4278,7 +4346,7 @@
       <c r="C7" s="28"/>
       <c r="D7" s="27"/>
     </row>
-    <row r="8" spans="1:4" ht="76.099999999999994" thickTop="1" thickBot="1">
+    <row r="8" spans="1:4" ht="73.5" thickTop="1" thickBot="1">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -4288,7 +4356,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="1:4" ht="76.099999999999994" thickTop="1" thickBot="1">
+    <row r="9" spans="1:4" ht="73.5" thickTop="1" thickBot="1">
       <c r="A9" s="26" t="s">
         <v>29</v>
       </c>
@@ -4300,7 +4368,7 @@
       </c>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4" ht="225.55" thickTop="1" thickBot="1">
+    <row r="10" spans="1:4" ht="218.5" thickTop="1" thickBot="1">
       <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
@@ -4312,7 +4380,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4" ht="16.3" thickTop="1" thickBot="1">
+    <row r="11" spans="1:4" ht="15.5" thickTop="1" thickBot="1">
       <c r="A11" s="31" t="s">
         <v>26</v>
       </c>
@@ -4322,7 +4390,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:4" ht="16.3" thickTop="1" thickBot="1">
+    <row r="12" spans="1:4" ht="15.5" thickTop="1" thickBot="1">
       <c r="A12" s="31" t="s">
         <v>24</v>
       </c>
@@ -4332,7 +4400,7 @@
       <c r="C12" s="28"/>
       <c r="D12" s="27"/>
     </row>
-    <row r="13" spans="1:4" ht="165.75" thickTop="1" thickBot="1">
+    <row r="13" spans="1:4" ht="160.5" thickTop="1" thickBot="1">
       <c r="A13" s="26" t="s">
         <v>22</v>
       </c>
@@ -4344,7 +4412,7 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:4" ht="16.3" thickTop="1" thickBot="1">
+    <row r="14" spans="1:4" ht="15.5" thickTop="1" thickBot="1">
       <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
@@ -4354,14 +4422,14 @@
       <c r="C14" s="28"/>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4" ht="13.6" thickTop="1"/>
+    <row r="15" spans="1:4" ht="14.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"枚举-固定枚举范围,枚举-固定枚举范围(O),枚举-自定义枚举范围,整数-固定取值范围,整数-自定义取值范围"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"REPORT/GET/PUT,REPORT/GET,PUT,GET/PUT,REPORT,GET,REPORT/PUT,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4371,20 +4439,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="72.375" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="3" max="3" width="72.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="13.6">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="14.5">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -4395,7 +4463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="14.95">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="14.5">
       <c r="A2" s="10">
         <v>43278</v>
       </c>
@@ -4406,17 +4474,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.95">
+    <row r="3" spans="1:3" ht="14.5">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" ht="14.95">
+    <row r="4" spans="1:3" ht="14.5">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" ht="14.95">
+    <row r="5" spans="1:3" ht="14.5">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -4464,22 +4532,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="29.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.7" customHeight="1">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
       <c r="A1" s="70" t="s">
         <v>180</v>
       </c>
